--- a/Hethongquanlylab/wwwroot/data/project.xlsx
+++ b/Hethongquanlylab/wwwroot/data/project.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\Hethongquanly\Hethongquanlylab\wwwroot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AF1F07D-6DCC-4DED-8A2F-5654EF9FAF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA18F13-CABF-4DF8-9B3F-05ADEF60E5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="1110" windowWidth="21600" windowHeight="11295" xr2:uid="{7A6C7C11-64F4-42E3-9397-BE40239E4323}"/>
+    <workbookView xWindow="8340" yWindow="2652" windowWidth="14496" windowHeight="8880" activeTab="1" xr2:uid="{7A6C7C11-64F4-42E3-9397-BE40239E4323}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="All" sheetId="1" r:id="rId1"/>
+    <sheet name="PTLT" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -49,9 +50,6 @@
     <t>endday</t>
   </si>
   <si>
-    <t>labid</t>
-  </si>
-  <si>
     <t>projecttype</t>
   </si>
   <si>
@@ -95,6 +93,18 @@
   </si>
   <si>
     <t>PowerTeam Tự Động Hóa</t>
+  </si>
+  <si>
+    <t>subbid</t>
+  </si>
+  <si>
+    <t>PTLT1</t>
+  </si>
+  <si>
+    <t>PTCK1</t>
+  </si>
+  <si>
+    <t>PTTDH1</t>
   </si>
 </sst>
 </file>
@@ -454,21 +464,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFC026A-D6EE-4B8C-A825-DFB6A9DEF000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +486,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -485,95 +495,136 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E25CDD4-66C8-4687-956E-F5707F2F95BE}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Hethongquanlylab/wwwroot/data/project.xlsx
+++ b/Hethongquanlylab/wwwroot/data/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\Hethongquanly\Hethongquanlylab\wwwroot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA18F13-CABF-4DF8-9B3F-05ADEF60E5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B95143-C7B4-464C-B60E-62EBF2518174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8340" yWindow="2652" windowWidth="14496" windowHeight="8880" activeTab="1" xr2:uid="{7A6C7C11-64F4-42E3-9397-BE40239E4323}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -465,7 +465,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,10 +590,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E25CDD4-66C8-4687-956E-F5707F2F95BE}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,6 +624,32 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
